--- a/excels/beaglesoft_template2.xlsx
+++ b/excels/beaglesoft_template2.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="40" windowWidth="19400" windowHeight="8980"/>
+    <workbookView xWindow="600" yWindow="45" windowWidth="19395" windowHeight="8985"/>
   </bookViews>
   <sheets>
-    <sheet name="テストシート名" sheetId="1" r:id="rId1"/>
+    <sheet name="テストシート名" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,17 +19,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="2">
   <si>
     <t>aaaaa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,7 +64,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -68,17 +72,127 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -381,84 +495,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AE13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:31">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="K10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>1</v>
+      </c>
+      <c r="R10" t="s">
+        <v>1</v>
+      </c>
+      <c r="S10" t="s">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s">
+        <v>1</v>
+      </c>
+      <c r="U10" t="s">
+        <v>1</v>
+      </c>
+      <c r="V10" t="s">
+        <v>1</v>
+      </c>
+      <c r="W10" t="s">
+        <v>1</v>
+      </c>
+      <c r="X10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="D13" s="11">
+        <v>41640</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>